--- a/data/input/DOC_20220629_AR66B_Shimadzu_NPOCandTN20220629.xlsx
+++ b/data/input/DOC_20220629_AR66B_Shimadzu_NPOCandTN20220629.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\sosiknas1\Lab_data\LTER\DOC\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E0271D-4C3F-4368-9E72-0E39EC630EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B957AB31-D4A4-462C-B01C-766455B55EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{E6C44DB0-C550-4FD4-B38B-B0DCD9AC9356}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{E6C44DB0-C550-4FD4-B38B-B0DCD9AC9356}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="68">
   <si>
     <t>Date run</t>
   </si>
@@ -135,9 +135,6 @@
     <t>LTER Station</t>
   </si>
   <si>
-    <t>Cast Type</t>
-  </si>
-  <si>
     <t>Cast</t>
   </si>
   <si>
@@ -147,9 +144,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>L5</t>
   </si>
   <si>
@@ -226,6 +220,15 @@
   </si>
   <si>
     <t>Blank  from ship's milliQ and acidified with C22 samples using same acid in mini vial</t>
+  </si>
+  <si>
+    <t>sample_type</t>
+  </si>
+  <si>
+    <t>cast</t>
+  </si>
+  <si>
+    <t>quality_flag</t>
   </si>
 </sst>
 </file>
@@ -324,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -361,6 +364,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -675,23 +681,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209D4C87-9233-44A7-83C1-C410785D272C}">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="L2" sqref="L2:L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="11" max="11" width="38.7109375" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" style="12" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="62.5703125" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="12" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>31</v>
       </c>
@@ -708,42 +715,45 @@
         <v>35</v>
       </c>
       <c r="F1" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="L1" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2" s="8">
         <v>20220420</v>
@@ -755,10 +765,10 @@
         <v>46</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="G2" s="8">
         <v>1</v>
@@ -770,27 +780,30 @@
         <v>30</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K2" t="s">
-        <v>60</v>
-      </c>
-      <c r="M2" s="3">
+        <v>58</v>
+      </c>
+      <c r="L2" s="8">
+        <v>1</v>
+      </c>
+      <c r="N2" s="3">
         <v>44721</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="5">
+      <c r="P2" s="5">
         <v>81.465636946045123</v>
       </c>
-      <c r="P2" s="5">
+      <c r="Q2" s="5">
         <v>6.1108683077349966</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B3" s="8">
         <v>20220420</v>
@@ -802,10 +815,10 @@
         <v>46</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="G3" s="8">
         <v>1</v>
@@ -817,27 +830,30 @@
         <v>3</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M3" s="3">
+        <v>58</v>
+      </c>
+      <c r="L3" s="8">
+        <v>1</v>
+      </c>
+      <c r="N3" s="3">
         <v>44721</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="O3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="5">
+      <c r="P3" s="5">
         <v>83.966893714714033</v>
       </c>
-      <c r="P3" s="5">
+      <c r="Q3" s="5">
         <v>5.7876322642638769</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B4" s="8">
         <v>20220422</v>
@@ -849,10 +865,10 @@
         <v>149</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="G4" s="8">
         <v>15</v>
@@ -864,24 +880,27 @@
         <v>25</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="M4" s="3">
+        <v>51</v>
+      </c>
+      <c r="L4" s="8">
+        <v>1</v>
+      </c>
+      <c r="N4" s="3">
         <v>44720</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="O4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="5">
+      <c r="P4" s="5">
         <v>70.317306673751204</v>
       </c>
-      <c r="P4" s="5">
+      <c r="Q4" s="5">
         <v>5.1981304332896601</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B5" s="8">
         <v>20220422</v>
@@ -893,10 +912,10 @@
         <v>149</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="G5" s="8">
         <v>15</v>
@@ -908,27 +927,30 @@
         <v>7</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K5" t="s">
-        <v>61</v>
-      </c>
-      <c r="M5" s="3">
+        <v>59</v>
+      </c>
+      <c r="L5" s="8">
+        <v>1</v>
+      </c>
+      <c r="N5" s="3">
         <v>44720</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="O5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="5">
+      <c r="P5" s="5">
         <v>69.828692648223395</v>
       </c>
-      <c r="P5" s="5">
+      <c r="Q5" s="5">
         <v>3.76051066280198</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B6" s="8">
         <v>20220422</v>
@@ -940,10 +962,10 @@
         <v>149</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="G6" s="8">
         <v>15</v>
@@ -955,27 +977,30 @@
         <v>7</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K6" t="s">
-        <v>61</v>
-      </c>
-      <c r="M6" s="3">
+        <v>59</v>
+      </c>
+      <c r="L6" s="8">
+        <v>1</v>
+      </c>
+      <c r="N6" s="3">
         <v>44720</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="O6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="5">
+      <c r="P6" s="5">
         <v>71.107711715046193</v>
       </c>
-      <c r="P6" s="5">
+      <c r="Q6" s="5">
         <v>4.6079496854052397</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B7" s="8">
         <v>20220422</v>
@@ -987,10 +1012,10 @@
         <v>149</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="G7" s="8">
         <v>15</v>
@@ -1002,24 +1027,27 @@
         <v>3</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="M7" s="3">
+        <v>51</v>
+      </c>
+      <c r="L7" s="8">
+        <v>1</v>
+      </c>
+      <c r="N7" s="3">
         <v>44721</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="O7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="5">
+      <c r="P7" s="5">
         <v>70.867826475326623</v>
       </c>
-      <c r="P7" s="5">
+      <c r="Q7" s="5">
         <v>3.502687819037027</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B8" s="8">
         <v>20220424</v>
@@ -1031,10 +1059,10 @@
         <v>127</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="G8" s="8">
         <v>19</v>
@@ -1046,27 +1074,30 @@
         <v>25</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K8" t="s">
-        <v>62</v>
-      </c>
-      <c r="M8" s="3">
+        <v>60</v>
+      </c>
+      <c r="L8" s="8">
+        <v>1</v>
+      </c>
+      <c r="N8" s="3">
         <v>44721</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="O8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="O8" s="5">
+      <c r="P8" s="5">
         <v>70.24612681606213</v>
       </c>
-      <c r="P8" s="5">
+      <c r="Q8" s="5">
         <v>5.1745983887152072</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B9" s="8">
         <v>20220424</v>
@@ -1078,10 +1109,10 @@
         <v>127</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="G9" s="8">
         <v>19</v>
@@ -1093,24 +1124,27 @@
         <v>17</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="M9" s="3">
+        <v>51</v>
+      </c>
+      <c r="L9" s="8">
+        <v>1</v>
+      </c>
+      <c r="N9" s="3">
         <v>44721</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="O9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="O9" s="5">
+      <c r="P9" s="5">
         <v>70.824452080494225</v>
       </c>
-      <c r="P9" s="5">
+      <c r="Q9" s="5">
         <v>3.8667927875447168</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="8">
         <v>20220424</v>
@@ -1122,10 +1156,10 @@
         <v>127</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="G10" s="8">
         <v>19</v>
@@ -1137,24 +1171,27 @@
         <v>3</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="M10" s="3">
+        <v>51</v>
+      </c>
+      <c r="L10" s="8">
+        <v>1</v>
+      </c>
+      <c r="N10" s="3">
         <v>44721</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="O10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="5">
+      <c r="P10" s="5">
         <v>70.448540658613325</v>
       </c>
-      <c r="P10" s="5">
+      <c r="Q10" s="5">
         <v>3.8184931488651266</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B11" s="8">
         <v>20220424</v>
@@ -1166,10 +1203,10 @@
         <v>127</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="G11" s="8">
         <v>19</v>
@@ -1181,24 +1218,27 @@
         <v>35</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="M11" s="3">
+        <v>51</v>
+      </c>
+      <c r="L11" s="8">
+        <v>1</v>
+      </c>
+      <c r="N11" s="3">
         <v>44720</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="O11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O11" s="5">
+      <c r="P11" s="5">
         <v>72.185536771357505</v>
       </c>
-      <c r="P11" s="5">
+      <c r="Q11" s="5">
         <v>6.4617225473498801</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B12" s="8">
         <v>20220420</v>
@@ -1210,10 +1250,10 @@
         <v>56</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="G12" s="8">
         <v>2</v>
@@ -1225,27 +1265,30 @@
         <v>3</v>
       </c>
       <c r="J12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" t="s">
         <v>53</v>
       </c>
-      <c r="K12" t="s">
-        <v>55</v>
-      </c>
-      <c r="M12" s="3">
+      <c r="L12" s="8">
+        <v>1</v>
+      </c>
+      <c r="N12" s="3">
         <v>44720</v>
       </c>
-      <c r="N12" s="6" t="s">
+      <c r="O12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="O12" s="5">
+      <c r="P12" s="5">
         <v>76.439352993599499</v>
       </c>
-      <c r="P12" s="5">
+      <c r="Q12" s="5">
         <v>6.9762390967875803</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B13" s="8">
         <v>20220420</v>
@@ -1257,10 +1300,10 @@
         <v>56</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="G13" s="8">
         <v>2</v>
@@ -1272,24 +1315,27 @@
         <v>35</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="M13" s="3">
+        <v>51</v>
+      </c>
+      <c r="L13" s="8">
+        <v>1</v>
+      </c>
+      <c r="N13" s="3">
         <v>44720</v>
       </c>
-      <c r="N13" s="6" t="s">
+      <c r="O13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="O13" s="5">
+      <c r="P13" s="5">
         <v>82.618883316451203</v>
       </c>
-      <c r="P13" s="5">
+      <c r="Q13" s="5">
         <v>7.1578331730597</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B14" s="8">
         <v>20220424</v>
@@ -1301,10 +1347,10 @@
         <v>135</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="G14" s="8">
         <v>20</v>
@@ -1316,24 +1362,27 @@
         <v>12</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="M14" s="3">
+        <v>51</v>
+      </c>
+      <c r="L14" s="8">
+        <v>1</v>
+      </c>
+      <c r="N14" s="3">
         <v>44721</v>
       </c>
-      <c r="N14" s="6" t="s">
+      <c r="O14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="O14" s="5">
+      <c r="P14" s="5">
         <v>70.520831316667426</v>
       </c>
-      <c r="P14" s="5">
+      <c r="Q14" s="5">
         <v>4.435242381235307</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B15" s="8">
         <v>20220424</v>
@@ -1345,10 +1394,10 @@
         <v>135</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="G15" s="8">
         <v>20</v>
@@ -1360,24 +1409,27 @@
         <v>3</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="M15" s="3">
+        <v>51</v>
+      </c>
+      <c r="L15" s="8">
+        <v>1</v>
+      </c>
+      <c r="N15" s="3">
         <v>44720</v>
       </c>
-      <c r="N15" s="6" t="s">
+      <c r="O15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="O15" s="5">
+      <c r="P15" s="5">
         <v>72.645408795383702</v>
       </c>
-      <c r="P15" s="5">
+      <c r="Q15" s="5">
         <v>4.7668445021433499</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B16" s="8">
         <v>20220425</v>
@@ -1389,10 +1441,10 @@
         <v>95</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="G16" s="8">
         <v>22</v>
@@ -1404,24 +1456,27 @@
         <v>3</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="M16" s="3">
+        <v>51</v>
+      </c>
+      <c r="L16" s="8">
+        <v>1</v>
+      </c>
+      <c r="N16" s="3">
         <v>44721</v>
       </c>
-      <c r="N16" s="4" t="s">
+      <c r="O16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O16" s="5">
+      <c r="P16" s="5">
         <v>70.867826475326623</v>
       </c>
-      <c r="P16" s="5">
+      <c r="Q16" s="5">
         <v>4.1045756241211766</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B17" s="8">
         <v>20220425</v>
@@ -1433,10 +1488,10 @@
         <v>95</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="G17" s="8">
         <v>22</v>
@@ -1448,27 +1503,30 @@
         <v>3</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K17" t="s">
-        <v>57</v>
-      </c>
-      <c r="M17" s="3">
+        <v>55</v>
+      </c>
+      <c r="L17" s="8">
+        <v>1</v>
+      </c>
+      <c r="N17" s="3">
         <v>44720</v>
       </c>
-      <c r="N17" s="6" t="s">
+      <c r="O17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O17" s="5">
+      <c r="P17" s="5">
         <v>70.231080669246296</v>
       </c>
-      <c r="P17" s="5">
+      <c r="Q17" s="5">
         <v>5.5499689560669001</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B18" s="8">
         <v>20220425</v>
@@ -1480,10 +1538,10 @@
         <v>95</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="G18" s="8">
         <v>22</v>
@@ -1495,24 +1553,27 @@
         <v>22</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="M18" s="3">
+        <v>51</v>
+      </c>
+      <c r="L18" s="8">
+        <v>1</v>
+      </c>
+      <c r="N18" s="3">
         <v>44720</v>
       </c>
-      <c r="N18" s="6" t="s">
+      <c r="O18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="O18" s="5">
+      <c r="P18" s="5">
         <v>70.935259706036405</v>
       </c>
-      <c r="P18" s="5">
+      <c r="Q18" s="5">
         <v>6.4768553870392198</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B19" s="8">
         <v>20220420</v>
@@ -1524,10 +1585,10 @@
         <v>77</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="G19" s="8">
         <v>4</v>
@@ -1539,27 +1600,30 @@
         <v>3</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K19" t="s">
-        <v>58</v>
-      </c>
-      <c r="M19" s="3">
+        <v>56</v>
+      </c>
+      <c r="L19" s="8">
+        <v>1</v>
+      </c>
+      <c r="N19" s="3">
         <v>44721</v>
       </c>
-      <c r="N19" s="6" t="s">
+      <c r="O19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O19" s="5">
+      <c r="P19" s="5">
         <v>70.173836158008129</v>
       </c>
-      <c r="P19" s="5">
+      <c r="Q19" s="5">
         <v>5.1077219659280866</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B20" s="8">
         <v>20220420</v>
@@ -1571,10 +1635,10 @@
         <v>77</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="G20" s="8">
         <v>4</v>
@@ -1586,24 +1650,27 @@
         <v>35</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="M20" s="3">
+        <v>51</v>
+      </c>
+      <c r="L20" s="8">
+        <v>1</v>
+      </c>
+      <c r="N20" s="3">
         <v>44721</v>
       </c>
-      <c r="N20" s="6" t="s">
+      <c r="O20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="O20" s="5">
+      <c r="P20" s="5">
         <v>71.446151739758733</v>
       </c>
-      <c r="P20" s="5">
+      <c r="Q20" s="5">
         <v>4.9999766181043768</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B21" s="8">
         <v>20220421</v>
@@ -1615,10 +1682,10 @@
         <v>446</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="G21" s="8">
         <v>6</v>
@@ -1630,27 +1697,30 @@
         <v>80</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K21" t="s">
-        <v>59</v>
-      </c>
-      <c r="M21" s="3">
+        <v>57</v>
+      </c>
+      <c r="L21" s="8">
+        <v>1</v>
+      </c>
+      <c r="N21" s="3">
         <v>44721</v>
       </c>
-      <c r="N21" s="6" t="s">
+      <c r="O21" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="O21" s="5">
+      <c r="P21" s="5">
         <v>63.045977273882329</v>
       </c>
-      <c r="P21" s="5">
+      <c r="Q21" s="5">
         <v>5.2711976660743973</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B22" s="8">
         <v>20220421</v>
@@ -1662,10 +1732,10 @@
         <v>446</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="G22" s="8">
         <v>6</v>
@@ -1677,24 +1747,27 @@
         <v>4</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="M22" s="3">
+        <v>51</v>
+      </c>
+      <c r="L22" s="8">
+        <v>1</v>
+      </c>
+      <c r="N22" s="3">
         <v>44720</v>
       </c>
-      <c r="N22" s="6" t="s">
+      <c r="O22" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O22" s="5">
+      <c r="P22" s="5">
         <v>69.411933626449695</v>
       </c>
-      <c r="P22" s="5">
+      <c r="Q22" s="5">
         <v>6.3784919290584901</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B23" s="8">
         <v>20220422</v>
@@ -1706,10 +1779,10 @@
         <v>1586</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="G23" s="8">
         <v>8</v>
@@ -1721,24 +1794,27 @@
         <v>83</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="M23" s="3">
+        <v>51</v>
+      </c>
+      <c r="L23" s="8">
+        <v>1</v>
+      </c>
+      <c r="N23" s="3">
         <v>44721</v>
       </c>
-      <c r="N23" s="6" t="s">
+      <c r="O23" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="O23" s="5">
+      <c r="P23" s="5">
         <v>58.057921868155333</v>
       </c>
-      <c r="P23" s="5">
+      <c r="Q23" s="5">
         <v>7.0508535835762869</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B24" s="8">
         <v>20220422</v>
@@ -1750,10 +1826,10 @@
         <v>1586</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="G24" s="8">
         <v>8</v>
@@ -1765,24 +1841,27 @@
         <v>4</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="M24" s="3">
+        <v>51</v>
+      </c>
+      <c r="L24" s="8">
+        <v>1</v>
+      </c>
+      <c r="N24" s="3">
         <v>44721</v>
       </c>
-      <c r="N24" s="6" t="s">
+      <c r="O24" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="O24" s="5">
+      <c r="P24" s="5">
         <v>59.908562714338132</v>
       </c>
-      <c r="P24" s="5">
+      <c r="Q24" s="5">
         <v>5.8210704756574367</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B25" s="8">
         <v>20220422</v>
@@ -1794,10 +1873,10 @@
         <v>1586</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="G25" s="8">
         <v>8</v>
@@ -1809,24 +1888,27 @@
         <v>500</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="M25" s="3">
+        <v>51</v>
+      </c>
+      <c r="L25" s="8">
+        <v>1</v>
+      </c>
+      <c r="N25" s="3">
         <v>44721</v>
       </c>
-      <c r="N25" s="6" t="s">
+      <c r="O25" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="O25" s="5">
+      <c r="P25" s="5">
         <v>44.539568812054632</v>
       </c>
-      <c r="P25" s="5">
+      <c r="Q25" s="5">
         <v>23.569330011996765</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B26" s="8">
         <v>20220422</v>
@@ -1838,10 +1920,10 @@
         <v>1586</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="G26" s="8">
         <v>8</v>
@@ -1853,124 +1935,136 @@
         <v>500</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K26" t="s">
-        <v>57</v>
-      </c>
-      <c r="M26" s="3">
+        <v>55</v>
+      </c>
+      <c r="L26" s="8">
+        <v>1</v>
+      </c>
+      <c r="N26" s="3">
         <v>44720</v>
       </c>
-      <c r="N26" s="6" t="s">
+      <c r="O26" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="O26" s="5">
+      <c r="P26" s="5">
         <v>47.108140461180497</v>
       </c>
-      <c r="P26" s="5">
+      <c r="Q26" s="5">
         <v>25.695561792506101</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
       <c r="J27" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K27" t="s">
-        <v>66</v>
-      </c>
-      <c r="M27" s="3">
+        <v>64</v>
+      </c>
+      <c r="L27" s="8">
+        <v>1</v>
+      </c>
+      <c r="N27" s="3">
         <v>44721</v>
       </c>
-      <c r="N27" s="6" t="s">
+      <c r="O27" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O27" s="5">
+      <c r="P27" s="5">
         <v>1.6759797694557403</v>
       </c>
-      <c r="P27" s="5">
+      <c r="Q27" s="5">
         <v>-0.33204341714507318</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
       <c r="J28" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K28" t="s">
-        <v>64</v>
-      </c>
-      <c r="M28" s="3">
+        <v>62</v>
+      </c>
+      <c r="L28" s="8">
+        <v>1</v>
+      </c>
+      <c r="N28" s="3">
         <v>44721</v>
       </c>
-      <c r="N28" s="6" t="s">
+      <c r="O28" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="O28" s="5">
+      <c r="P28" s="5">
         <v>7.3821705722912991</v>
       </c>
-      <c r="P28" s="5">
+      <c r="Q28" s="5">
         <v>-0.413298270831433</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="9"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
       <c r="J29" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K29" t="s">
-        <v>65</v>
-      </c>
-      <c r="M29" s="3">
+        <v>63</v>
+      </c>
+      <c r="L29" s="8">
+        <v>1</v>
+      </c>
+      <c r="N29" s="3">
         <v>44721</v>
       </c>
-      <c r="N29" s="6" t="s">
+      <c r="O29" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="O29" s="5">
+      <c r="P29" s="5">
         <v>3.8196869433894793</v>
       </c>
-      <c r="P29" s="5">
+      <c r="Q29" s="5">
         <v>-0.13862194101741498</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="9"/>
@@ -1982,7 +2076,7 @@
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="9"/>
@@ -1994,7 +2088,7 @@
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="9"/>
@@ -2039,8 +2133,8 @@
       <c r="B36" s="8"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M2:P29">
-    <sortCondition ref="N2:N29"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N2:Q29">
+    <sortCondition ref="O2:O29"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/input/DOC_20220629_AR66B_Shimadzu_NPOCandTN20220629.xlsx
+++ b/data/input/DOC_20220629_AR66B_Shimadzu_NPOCandTN20220629.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\sosiknas1\Lab_data\LTER\DOC\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B957AB31-D4A4-462C-B01C-766455B55EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A83A15-C43E-49CE-8C12-269D4AB422A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{E6C44DB0-C550-4FD4-B38B-B0DCD9AC9356}"/>
+    <workbookView xWindow="-22020" yWindow="2265" windowWidth="21345" windowHeight="14850" xr2:uid="{E6C44DB0-C550-4FD4-B38B-B0DCD9AC9356}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="69">
   <si>
     <t>Date run</t>
   </si>
@@ -228,7 +228,10 @@
     <t>cast</t>
   </si>
   <si>
-    <t>quality_flag</t>
+    <t>quality_flag_C</t>
+  </si>
+  <si>
+    <t>quality_flag_N</t>
   </si>
 </sst>
 </file>
@@ -364,7 +367,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -385,9 +388,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -425,7 +428,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -531,7 +534,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -673,7 +676,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -681,24 +684,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209D4C87-9233-44A7-83C1-C410785D272C}">
-  <dimension ref="A1:R36"/>
+  <dimension ref="A1:S36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L29"/>
+      <selection activeCell="L1" sqref="L1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="11" max="11" width="62.5703125" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" style="12" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="18.42578125" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" style="12" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>31</v>
       </c>
@@ -735,23 +738,26 @@
       <c r="L1" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="M1" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="S1" s="13" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>48</v>
       </c>
@@ -788,20 +794,23 @@
       <c r="L2" s="8">
         <v>1</v>
       </c>
-      <c r="N2" s="3">
+      <c r="M2" s="8">
+        <v>1</v>
+      </c>
+      <c r="O2" s="3">
         <v>44721</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="5">
+      <c r="Q2" s="5">
         <v>81.465636946045123</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="R2" s="5">
         <v>6.1108683077349966</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>48</v>
       </c>
@@ -838,20 +847,23 @@
       <c r="L3" s="8">
         <v>1</v>
       </c>
-      <c r="N3" s="3">
+      <c r="M3" s="8">
+        <v>1</v>
+      </c>
+      <c r="O3" s="3">
         <v>44721</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="P3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="5">
+      <c r="Q3" s="5">
         <v>83.966893714714033</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="R3" s="5">
         <v>5.7876322642638769</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>48</v>
       </c>
@@ -885,20 +897,23 @@
       <c r="L4" s="8">
         <v>1</v>
       </c>
-      <c r="N4" s="3">
+      <c r="M4" s="8">
+        <v>1</v>
+      </c>
+      <c r="O4" s="3">
         <v>44720</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="P4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="5">
+      <c r="Q4" s="5">
         <v>70.317306673751204</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="R4" s="5">
         <v>5.1981304332896601</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>48</v>
       </c>
@@ -935,20 +950,23 @@
       <c r="L5" s="8">
         <v>1</v>
       </c>
-      <c r="N5" s="3">
+      <c r="M5" s="8">
+        <v>1</v>
+      </c>
+      <c r="O5" s="3">
         <v>44720</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="P5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="5">
+      <c r="Q5" s="5">
         <v>69.828692648223395</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="R5" s="5">
         <v>3.76051066280198</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>48</v>
       </c>
@@ -985,20 +1003,23 @@
       <c r="L6" s="8">
         <v>1</v>
       </c>
-      <c r="N6" s="3">
+      <c r="M6" s="8">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3">
         <v>44720</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="P6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="5">
+      <c r="Q6" s="5">
         <v>71.107711715046193</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="R6" s="5">
         <v>4.6079496854052397</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>48</v>
       </c>
@@ -1032,20 +1053,23 @@
       <c r="L7" s="8">
         <v>1</v>
       </c>
-      <c r="N7" s="3">
+      <c r="M7" s="8">
+        <v>1</v>
+      </c>
+      <c r="O7" s="3">
         <v>44721</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="P7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P7" s="5">
+      <c r="Q7" s="5">
         <v>70.867826475326623</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="R7" s="5">
         <v>3.502687819037027</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>48</v>
       </c>
@@ -1082,20 +1106,23 @@
       <c r="L8" s="8">
         <v>1</v>
       </c>
-      <c r="N8" s="3">
+      <c r="M8" s="8">
+        <v>1</v>
+      </c>
+      <c r="O8" s="3">
         <v>44721</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="P8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="P8" s="5">
+      <c r="Q8" s="5">
         <v>70.24612681606213</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="R8" s="5">
         <v>5.1745983887152072</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>48</v>
       </c>
@@ -1129,20 +1156,23 @@
       <c r="L9" s="8">
         <v>1</v>
       </c>
-      <c r="N9" s="3">
+      <c r="M9" s="8">
+        <v>1</v>
+      </c>
+      <c r="O9" s="3">
         <v>44721</v>
       </c>
-      <c r="O9" s="6" t="s">
+      <c r="P9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="P9" s="5">
+      <c r="Q9" s="5">
         <v>70.824452080494225</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="R9" s="5">
         <v>3.8667927875447168</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>48</v>
       </c>
@@ -1176,20 +1206,23 @@
       <c r="L10" s="8">
         <v>1</v>
       </c>
-      <c r="N10" s="3">
+      <c r="M10" s="8">
+        <v>1</v>
+      </c>
+      <c r="O10" s="3">
         <v>44721</v>
       </c>
-      <c r="O10" s="6" t="s">
+      <c r="P10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="P10" s="5">
+      <c r="Q10" s="5">
         <v>70.448540658613325</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="R10" s="5">
         <v>3.8184931488651266</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>48</v>
       </c>
@@ -1223,20 +1256,23 @@
       <c r="L11" s="8">
         <v>1</v>
       </c>
-      <c r="N11" s="3">
+      <c r="M11" s="8">
+        <v>1</v>
+      </c>
+      <c r="O11" s="3">
         <v>44720</v>
       </c>
-      <c r="O11" s="6" t="s">
+      <c r="P11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P11" s="5">
+      <c r="Q11" s="5">
         <v>72.185536771357505</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="R11" s="5">
         <v>6.4617225473498801</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>48</v>
       </c>
@@ -1273,20 +1309,23 @@
       <c r="L12" s="8">
         <v>1</v>
       </c>
-      <c r="N12" s="3">
+      <c r="M12" s="8">
+        <v>1</v>
+      </c>
+      <c r="O12" s="3">
         <v>44720</v>
       </c>
-      <c r="O12" s="6" t="s">
+      <c r="P12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P12" s="5">
+      <c r="Q12" s="5">
         <v>76.439352993599499</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="R12" s="5">
         <v>6.9762390967875803</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>48</v>
       </c>
@@ -1320,20 +1359,23 @@
       <c r="L13" s="8">
         <v>1</v>
       </c>
-      <c r="N13" s="3">
+      <c r="M13" s="8">
+        <v>1</v>
+      </c>
+      <c r="O13" s="3">
         <v>44720</v>
       </c>
-      <c r="O13" s="6" t="s">
+      <c r="P13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P13" s="5">
+      <c r="Q13" s="5">
         <v>82.618883316451203</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="R13" s="5">
         <v>7.1578331730597</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>48</v>
       </c>
@@ -1367,20 +1409,23 @@
       <c r="L14" s="8">
         <v>1</v>
       </c>
-      <c r="N14" s="3">
+      <c r="M14" s="8">
+        <v>1</v>
+      </c>
+      <c r="O14" s="3">
         <v>44721</v>
       </c>
-      <c r="O14" s="6" t="s">
+      <c r="P14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="P14" s="5">
+      <c r="Q14" s="5">
         <v>70.520831316667426</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="R14" s="5">
         <v>4.435242381235307</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>48</v>
       </c>
@@ -1414,20 +1459,23 @@
       <c r="L15" s="8">
         <v>1</v>
       </c>
-      <c r="N15" s="3">
+      <c r="M15" s="8">
+        <v>1</v>
+      </c>
+      <c r="O15" s="3">
         <v>44720</v>
       </c>
-      <c r="O15" s="6" t="s">
+      <c r="P15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="P15" s="5">
+      <c r="Q15" s="5">
         <v>72.645408795383702</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="R15" s="5">
         <v>4.7668445021433499</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>48</v>
       </c>
@@ -1461,20 +1509,23 @@
       <c r="L16" s="8">
         <v>1</v>
       </c>
-      <c r="N16" s="3">
+      <c r="M16" s="8">
+        <v>1</v>
+      </c>
+      <c r="O16" s="3">
         <v>44721</v>
       </c>
-      <c r="O16" s="4" t="s">
+      <c r="P16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P16" s="5">
+      <c r="Q16" s="5">
         <v>70.867826475326623</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="R16" s="5">
         <v>4.1045756241211766</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>48</v>
       </c>
@@ -1511,20 +1562,23 @@
       <c r="L17" s="8">
         <v>1</v>
       </c>
-      <c r="N17" s="3">
+      <c r="M17" s="8">
+        <v>1</v>
+      </c>
+      <c r="O17" s="3">
         <v>44720</v>
       </c>
-      <c r="O17" s="6" t="s">
+      <c r="P17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="P17" s="5">
+      <c r="Q17" s="5">
         <v>70.231080669246296</v>
       </c>
-      <c r="Q17" s="5">
+      <c r="R17" s="5">
         <v>5.5499689560669001</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>48</v>
       </c>
@@ -1558,20 +1612,23 @@
       <c r="L18" s="8">
         <v>1</v>
       </c>
-      <c r="N18" s="3">
+      <c r="M18" s="8">
+        <v>1</v>
+      </c>
+      <c r="O18" s="3">
         <v>44720</v>
       </c>
-      <c r="O18" s="6" t="s">
+      <c r="P18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P18" s="5">
+      <c r="Q18" s="5">
         <v>70.935259706036405</v>
       </c>
-      <c r="Q18" s="5">
+      <c r="R18" s="5">
         <v>6.4768553870392198</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>48</v>
       </c>
@@ -1608,20 +1665,23 @@
       <c r="L19" s="8">
         <v>1</v>
       </c>
-      <c r="N19" s="3">
+      <c r="M19" s="8">
+        <v>1</v>
+      </c>
+      <c r="O19" s="3">
         <v>44721</v>
       </c>
-      <c r="O19" s="6" t="s">
+      <c r="P19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="P19" s="5">
+      <c r="Q19" s="5">
         <v>70.173836158008129</v>
       </c>
-      <c r="Q19" s="5">
+      <c r="R19" s="5">
         <v>5.1077219659280866</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>48</v>
       </c>
@@ -1655,20 +1715,23 @@
       <c r="L20" s="8">
         <v>1</v>
       </c>
-      <c r="N20" s="3">
+      <c r="M20" s="8">
+        <v>1</v>
+      </c>
+      <c r="O20" s="3">
         <v>44721</v>
       </c>
-      <c r="O20" s="6" t="s">
+      <c r="P20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="P20" s="5">
+      <c r="Q20" s="5">
         <v>71.446151739758733</v>
       </c>
-      <c r="Q20" s="5">
+      <c r="R20" s="5">
         <v>4.9999766181043768</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>48</v>
       </c>
@@ -1705,20 +1768,23 @@
       <c r="L21" s="8">
         <v>1</v>
       </c>
-      <c r="N21" s="3">
+      <c r="M21" s="8">
+        <v>1</v>
+      </c>
+      <c r="O21" s="3">
         <v>44721</v>
       </c>
-      <c r="O21" s="6" t="s">
+      <c r="P21" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="P21" s="5">
+      <c r="Q21" s="5">
         <v>63.045977273882329</v>
       </c>
-      <c r="Q21" s="5">
+      <c r="R21" s="5">
         <v>5.2711976660743973</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>48</v>
       </c>
@@ -1752,20 +1818,23 @@
       <c r="L22" s="8">
         <v>1</v>
       </c>
-      <c r="N22" s="3">
+      <c r="M22" s="8">
+        <v>1</v>
+      </c>
+      <c r="O22" s="3">
         <v>44720</v>
       </c>
-      <c r="O22" s="6" t="s">
+      <c r="P22" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="P22" s="5">
+      <c r="Q22" s="5">
         <v>69.411933626449695</v>
       </c>
-      <c r="Q22" s="5">
+      <c r="R22" s="5">
         <v>6.3784919290584901</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>48</v>
       </c>
@@ -1799,20 +1868,23 @@
       <c r="L23" s="8">
         <v>1</v>
       </c>
-      <c r="N23" s="3">
+      <c r="M23" s="8">
+        <v>1</v>
+      </c>
+      <c r="O23" s="3">
         <v>44721</v>
       </c>
-      <c r="O23" s="6" t="s">
+      <c r="P23" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="P23" s="5">
+      <c r="Q23" s="5">
         <v>58.057921868155333</v>
       </c>
-      <c r="Q23" s="5">
+      <c r="R23" s="5">
         <v>7.0508535835762869</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>48</v>
       </c>
@@ -1846,20 +1918,23 @@
       <c r="L24" s="8">
         <v>1</v>
       </c>
-      <c r="N24" s="3">
+      <c r="M24" s="8">
+        <v>1</v>
+      </c>
+      <c r="O24" s="3">
         <v>44721</v>
       </c>
-      <c r="O24" s="6" t="s">
+      <c r="P24" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="P24" s="5">
+      <c r="Q24" s="5">
         <v>59.908562714338132</v>
       </c>
-      <c r="Q24" s="5">
+      <c r="R24" s="5">
         <v>5.8210704756574367</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>48</v>
       </c>
@@ -1893,20 +1968,23 @@
       <c r="L25" s="8">
         <v>1</v>
       </c>
-      <c r="N25" s="3">
+      <c r="M25" s="8">
+        <v>1</v>
+      </c>
+      <c r="O25" s="3">
         <v>44721</v>
       </c>
-      <c r="O25" s="6" t="s">
+      <c r="P25" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="P25" s="5">
+      <c r="Q25" s="5">
         <v>44.539568812054632</v>
       </c>
-      <c r="Q25" s="5">
+      <c r="R25" s="5">
         <v>23.569330011996765</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>48</v>
       </c>
@@ -1943,20 +2021,23 @@
       <c r="L26" s="8">
         <v>1</v>
       </c>
-      <c r="N26" s="3">
+      <c r="M26" s="8">
+        <v>1</v>
+      </c>
+      <c r="O26" s="3">
         <v>44720</v>
       </c>
-      <c r="O26" s="6" t="s">
+      <c r="P26" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P26" s="5">
+      <c r="Q26" s="5">
         <v>47.108140461180497</v>
       </c>
-      <c r="Q26" s="5">
+      <c r="R26" s="5">
         <v>25.695561792506101</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>48</v>
       </c>
@@ -1979,20 +2060,23 @@
       <c r="L27" s="8">
         <v>1</v>
       </c>
-      <c r="N27" s="3">
+      <c r="M27" s="8">
+        <v>1</v>
+      </c>
+      <c r="O27" s="3">
         <v>44721</v>
       </c>
-      <c r="O27" s="6" t="s">
+      <c r="P27" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="P27" s="5">
+      <c r="Q27" s="5">
         <v>1.6759797694557403</v>
       </c>
-      <c r="Q27" s="5">
+      <c r="R27" s="5">
         <v>-0.33204341714507318</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>48</v>
       </c>
@@ -2015,20 +2099,23 @@
       <c r="L28" s="8">
         <v>1</v>
       </c>
-      <c r="N28" s="3">
+      <c r="M28" s="8">
+        <v>1</v>
+      </c>
+      <c r="O28" s="3">
         <v>44721</v>
       </c>
-      <c r="O28" s="6" t="s">
+      <c r="P28" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="P28" s="5">
+      <c r="Q28" s="5">
         <v>7.3821705722912991</v>
       </c>
-      <c r="Q28" s="5">
+      <c r="R28" s="5">
         <v>-0.413298270831433</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>48</v>
       </c>
@@ -2051,20 +2138,23 @@
       <c r="L29" s="8">
         <v>1</v>
       </c>
-      <c r="N29" s="3">
+      <c r="M29" s="8">
+        <v>1</v>
+      </c>
+      <c r="O29" s="3">
         <v>44721</v>
       </c>
-      <c r="O29" s="6" t="s">
+      <c r="P29" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="P29" s="5">
+      <c r="Q29" s="5">
         <v>3.8196869433894793</v>
       </c>
-      <c r="Q29" s="5">
+      <c r="R29" s="5">
         <v>-0.13862194101741498</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="9"/>
@@ -2076,7 +2166,7 @@
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="9"/>
@@ -2088,7 +2178,7 @@
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="9"/>
@@ -2133,8 +2223,8 @@
       <c r="B36" s="8"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N2:Q29">
-    <sortCondition ref="O2:O29"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O2:R29">
+    <sortCondition ref="P2:P29"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/input/DOC_20220629_AR66B_Shimadzu_NPOCandTN20220629.xlsx
+++ b/data/input/DOC_20220629_AR66B_Shimadzu_NPOCandTN20220629.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20407"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\sosiknas1\Lab_data\LTER\DOC\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A83A15-C43E-49CE-8C12-269D4AB422A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118D85C1-C6C8-4F7C-92E4-89472A02B9F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22020" yWindow="2265" windowWidth="21345" windowHeight="14850" xr2:uid="{E6C44DB0-C550-4FD4-B38B-B0DCD9AC9356}"/>
+    <workbookView xWindow="-22020" yWindow="2268" windowWidth="21348" windowHeight="14856" xr2:uid="{E6C44DB0-C550-4FD4-B38B-B0DCD9AC9356}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -278,7 +278,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -288,6 +288,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -339,9 +345,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -370,6 +373,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,9 +410,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -428,7 +450,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -534,7 +556,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -676,7 +698,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -687,58 +709,60 @@
   <dimension ref="A1:S36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:M1"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="11" max="11" width="62.5703125" customWidth="1"/>
-    <col min="12" max="13" width="18.42578125" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" style="12" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="62.5546875" customWidth="1"/>
+    <col min="12" max="12" width="9.21875" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" style="11" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2.5546875" customWidth="1"/>
+    <col min="17" max="17" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:19" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="13" t="s">
         <v>68</v>
       </c>
       <c r="O1" s="1" t="s">
@@ -753,1477 +777,1477 @@
       <c r="R1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="S1" s="12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="8">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="7">
         <v>20220420</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>1424</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>46</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" s="8">
-        <v>1</v>
-      </c>
-      <c r="H2" s="8">
+      <c r="F2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="7">
+        <v>1</v>
+      </c>
+      <c r="H2" s="7">
         <v>4</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <v>30</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>51</v>
       </c>
       <c r="K2" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="8">
-        <v>1</v>
-      </c>
-      <c r="M2" s="8">
+      <c r="L2" s="7">
+        <v>1</v>
+      </c>
+      <c r="M2" s="7">
         <v>1</v>
       </c>
       <c r="O2" s="3">
         <v>44721</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="Q2" s="4">
         <v>81.465636946045123</v>
       </c>
-      <c r="R2" s="5">
+      <c r="R2" s="4">
         <v>6.1108683077349966</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="8">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="7">
         <v>20220420</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>1424</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>46</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="8">
-        <v>1</v>
-      </c>
-      <c r="H3" s="8">
+      <c r="F3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1</v>
+      </c>
+      <c r="H3" s="7">
         <v>9</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="7">
         <v>3</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>51</v>
       </c>
       <c r="K3" t="s">
         <v>58</v>
       </c>
-      <c r="L3" s="8">
-        <v>1</v>
-      </c>
-      <c r="M3" s="8">
+      <c r="L3" s="7">
+        <v>1</v>
+      </c>
+      <c r="M3" s="7">
         <v>1</v>
       </c>
       <c r="O3" s="3">
         <v>44721</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="Q3" s="4">
         <v>83.966893714714033</v>
       </c>
-      <c r="R3" s="5">
+      <c r="R3" s="4">
         <v>5.7876322642638769</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="8">
+    <row r="4" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="14">
         <v>20220422</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="15">
         <v>1454</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="14">
         <v>149</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="8">
+      <c r="F4" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="14">
         <v>15</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="14">
         <v>15</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="14">
         <v>25</v>
       </c>
-      <c r="J4" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="L4" s="8">
-        <v>1</v>
-      </c>
-      <c r="M4" s="8">
-        <v>1</v>
-      </c>
-      <c r="O4" s="3">
+      <c r="J4" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="14">
+        <v>1</v>
+      </c>
+      <c r="M4" s="14">
+        <v>1</v>
+      </c>
+      <c r="O4" s="17">
         <v>44720</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="P4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q4" s="19">
         <v>70.317306673751204</v>
       </c>
-      <c r="R4" s="5">
+      <c r="R4" s="19">
         <v>5.1981304332896601</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="8">
+    <row r="5" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="14">
         <v>20220422</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="15">
         <v>1454</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="14">
         <v>149</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" s="8">
+      <c r="F5" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="14">
         <v>15</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="14">
         <v>18</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="14">
         <v>7</v>
       </c>
-      <c r="J5" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="J5" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="L5" s="8">
-        <v>1</v>
-      </c>
-      <c r="M5" s="8">
-        <v>1</v>
-      </c>
-      <c r="O5" s="3">
+      <c r="L5" s="14">
+        <v>1</v>
+      </c>
+      <c r="M5" s="14">
+        <v>1</v>
+      </c>
+      <c r="O5" s="17">
         <v>44720</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="P5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="19">
         <v>69.828692648223395</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="19">
         <v>3.76051066280198</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="8">
+    <row r="6" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="14">
         <v>20220422</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="15">
         <v>1454</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="14">
         <v>149</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="8">
+      <c r="F6" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="14">
         <v>15</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="14">
         <v>18</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="14">
         <v>7</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="L6" s="8">
-        <v>1</v>
-      </c>
-      <c r="M6" s="8">
-        <v>1</v>
-      </c>
-      <c r="O6" s="3">
+      <c r="L6" s="14">
+        <v>1</v>
+      </c>
+      <c r="M6" s="14">
+        <v>1</v>
+      </c>
+      <c r="O6" s="17">
         <v>44720</v>
       </c>
-      <c r="P6" s="6" t="s">
+      <c r="P6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6" s="19">
         <v>71.107711715046193</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6" s="19">
         <v>4.6079496854052397</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="8">
+    <row r="7" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="14">
         <v>20220422</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="15">
         <v>1454</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="14">
         <v>149</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="8">
+      <c r="F7" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="14">
         <v>15</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="14">
         <v>20</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="14">
         <v>3</v>
       </c>
-      <c r="J7" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="L7" s="8">
-        <v>1</v>
-      </c>
-      <c r="M7" s="8">
-        <v>1</v>
-      </c>
-      <c r="O7" s="3">
+      <c r="J7" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="14">
+        <v>1</v>
+      </c>
+      <c r="M7" s="14">
+        <v>1</v>
+      </c>
+      <c r="O7" s="17">
         <v>44721</v>
       </c>
-      <c r="P7" s="6" t="s">
+      <c r="P7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q7" s="19">
         <v>70.867826475326623</v>
       </c>
-      <c r="R7" s="5">
+      <c r="R7" s="19">
         <v>3.502687819037027</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="8">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="7">
         <v>20220424</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>1410</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>127</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="8">
+      <c r="F8" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="7">
         <v>19</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="7">
         <v>12</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="7">
         <v>25</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="7" t="s">
         <v>51</v>
       </c>
       <c r="K8" t="s">
         <v>60</v>
       </c>
-      <c r="L8" s="8">
-        <v>1</v>
-      </c>
-      <c r="M8" s="8">
+      <c r="L8" s="7">
+        <v>1</v>
+      </c>
+      <c r="M8" s="7">
         <v>1</v>
       </c>
       <c r="O8" s="3">
         <v>44721</v>
       </c>
-      <c r="P8" s="6" t="s">
+      <c r="P8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="Q8" s="4">
         <v>70.24612681606213</v>
       </c>
-      <c r="R8" s="5">
+      <c r="R8" s="4">
         <v>5.1745983887152072</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="8">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="7">
         <v>20220424</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>1410</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>127</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="8">
+      <c r="F9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="7">
         <v>19</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <v>14</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="7">
         <v>17</v>
       </c>
-      <c r="J9" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="L9" s="8">
-        <v>1</v>
-      </c>
-      <c r="M9" s="8">
+      <c r="J9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" s="7">
+        <v>1</v>
+      </c>
+      <c r="M9" s="7">
         <v>1</v>
       </c>
       <c r="O9" s="3">
         <v>44721</v>
       </c>
-      <c r="P9" s="6" t="s">
+      <c r="P9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="Q9" s="4">
         <v>70.824452080494225</v>
       </c>
-      <c r="R9" s="5">
+      <c r="R9" s="4">
         <v>3.8667927875447168</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="8">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="7">
         <v>20220424</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>1410</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>127</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" s="8">
+      <c r="F10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="7">
         <v>19</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="7">
         <v>20</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="7">
         <v>3</v>
       </c>
-      <c r="J10" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="L10" s="8">
-        <v>1</v>
-      </c>
-      <c r="M10" s="8">
+      <c r="J10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" s="7">
+        <v>1</v>
+      </c>
+      <c r="M10" s="7">
         <v>1</v>
       </c>
       <c r="O10" s="3">
         <v>44721</v>
       </c>
-      <c r="P10" s="6" t="s">
+      <c r="P10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="Q10" s="4">
         <v>70.448540658613325</v>
       </c>
-      <c r="R10" s="5">
+      <c r="R10" s="4">
         <v>3.8184931488651266</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="8">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="7">
         <v>20220424</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>1410</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>127</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="8">
+      <c r="F11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="7">
         <v>19</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="7">
         <v>9</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="7">
         <v>35</v>
       </c>
-      <c r="J11" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="L11" s="8">
-        <v>1</v>
-      </c>
-      <c r="M11" s="8">
+      <c r="J11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" s="7">
+        <v>1</v>
+      </c>
+      <c r="M11" s="7">
         <v>1</v>
       </c>
       <c r="O11" s="3">
         <v>44720</v>
       </c>
-      <c r="P11" s="6" t="s">
+      <c r="P11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="Q11" s="4">
         <v>72.185536771357505</v>
       </c>
-      <c r="R11" s="5">
+      <c r="R11" s="4">
         <v>6.4617225473498801</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="8">
+    <row r="12" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="14">
         <v>20220420</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="15">
         <v>1711</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="14">
         <v>56</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="8">
+      <c r="F12" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="14">
         <v>2</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="14">
         <v>13</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="14">
         <v>3</v>
       </c>
-      <c r="J12" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="J12" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="L12" s="8">
-        <v>1</v>
-      </c>
-      <c r="M12" s="8">
-        <v>1</v>
-      </c>
-      <c r="O12" s="3">
+      <c r="L12" s="14">
+        <v>1</v>
+      </c>
+      <c r="M12" s="14">
+        <v>1</v>
+      </c>
+      <c r="O12" s="17">
         <v>44720</v>
       </c>
-      <c r="P12" s="6" t="s">
+      <c r="P12" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="Q12" s="19">
         <v>76.439352993599499</v>
       </c>
-      <c r="R12" s="5">
+      <c r="R12" s="19">
         <v>6.9762390967875803</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="8">
+    <row r="13" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="14">
         <v>20220420</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="15">
         <v>1711</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="14">
         <v>56</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="8">
+      <c r="F13" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="14">
         <v>2</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="14">
         <v>4</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="14">
         <v>35</v>
       </c>
-      <c r="J13" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="L13" s="8">
-        <v>1</v>
-      </c>
-      <c r="M13" s="8">
-        <v>1</v>
-      </c>
-      <c r="O13" s="3">
+      <c r="J13" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L13" s="14">
+        <v>1</v>
+      </c>
+      <c r="M13" s="14">
+        <v>1</v>
+      </c>
+      <c r="O13" s="17">
         <v>44720</v>
       </c>
-      <c r="P13" s="6" t="s">
+      <c r="P13" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="Q13" s="19">
         <v>82.618883316451203</v>
       </c>
-      <c r="R13" s="5">
+      <c r="R13" s="19">
         <v>7.1578331730597</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="8">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="7">
         <v>20220424</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>2203</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <v>135</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="8">
+      <c r="F14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="7">
         <v>20</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="7">
         <v>15</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="7">
         <v>12</v>
       </c>
-      <c r="J14" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="L14" s="8">
-        <v>1</v>
-      </c>
-      <c r="M14" s="8">
+      <c r="J14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" s="7">
+        <v>1</v>
+      </c>
+      <c r="M14" s="7">
         <v>1</v>
       </c>
       <c r="O14" s="3">
         <v>44721</v>
       </c>
-      <c r="P14" s="6" t="s">
+      <c r="P14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="Q14" s="4">
         <v>70.520831316667426</v>
       </c>
-      <c r="R14" s="5">
+      <c r="R14" s="4">
         <v>4.435242381235307</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="8">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="7">
         <v>20220424</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <v>2203</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <v>135</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G15" s="8">
+      <c r="F15" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="7">
         <v>20</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="7">
         <v>18</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="7">
         <v>3</v>
       </c>
-      <c r="J15" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="L15" s="8">
-        <v>1</v>
-      </c>
-      <c r="M15" s="8">
+      <c r="J15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L15" s="7">
+        <v>1</v>
+      </c>
+      <c r="M15" s="7">
         <v>1</v>
       </c>
       <c r="O15" s="3">
         <v>44720</v>
       </c>
-      <c r="P15" s="6" t="s">
+      <c r="P15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="Q15" s="4">
         <v>72.645408795383702</v>
       </c>
-      <c r="R15" s="5">
+      <c r="R15" s="4">
         <v>4.7668445021433499</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="8">
+    <row r="16" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="14">
         <v>20220425</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="15">
         <v>2022</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="14">
         <v>95</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G16" s="8">
+      <c r="F16" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="14">
         <v>22</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="14">
         <v>14</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="14">
         <v>3</v>
       </c>
-      <c r="J16" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="L16" s="8">
-        <v>1</v>
-      </c>
-      <c r="M16" s="8">
-        <v>1</v>
-      </c>
-      <c r="O16" s="3">
+      <c r="J16" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L16" s="14">
+        <v>1</v>
+      </c>
+      <c r="M16" s="14">
+        <v>1</v>
+      </c>
+      <c r="O16" s="17">
         <v>44721</v>
       </c>
-      <c r="P16" s="4" t="s">
+      <c r="P16" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="Q16" s="19">
         <v>70.867826475326623</v>
       </c>
-      <c r="R16" s="5">
+      <c r="R16" s="19">
         <v>4.1045756241211766</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="8">
+    <row r="17" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="14">
         <v>20220425</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="15">
         <v>2022</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="14">
         <v>95</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G17" s="8">
+      <c r="F17" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="14">
         <v>22</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="14">
         <v>14</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="14">
         <v>3</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="L17" s="8">
-        <v>1</v>
-      </c>
-      <c r="M17" s="8">
-        <v>1</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="L17" s="14">
+        <v>1</v>
+      </c>
+      <c r="M17" s="14">
+        <v>1</v>
+      </c>
+      <c r="O17" s="17">
         <v>44720</v>
       </c>
-      <c r="P17" s="6" t="s">
+      <c r="P17" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="Q17" s="5">
+      <c r="Q17" s="19">
         <v>70.231080669246296</v>
       </c>
-      <c r="R17" s="5">
+      <c r="R17" s="19">
         <v>5.5499689560669001</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="8">
+    <row r="18" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="14">
         <v>20220425</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="15">
         <v>2022</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="14">
         <v>95</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G18" s="8">
+      <c r="F18" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="14">
         <v>22</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="14">
         <v>8</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="14">
         <v>22</v>
       </c>
-      <c r="J18" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="L18" s="8">
-        <v>1</v>
-      </c>
-      <c r="M18" s="8">
-        <v>1</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="J18" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L18" s="14">
+        <v>1</v>
+      </c>
+      <c r="M18" s="14">
+        <v>1</v>
+      </c>
+      <c r="O18" s="17">
         <v>44720</v>
       </c>
-      <c r="P18" s="6" t="s">
+      <c r="P18" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="5">
+      <c r="Q18" s="19">
         <v>70.935259706036405</v>
       </c>
-      <c r="R18" s="5">
+      <c r="R18" s="19">
         <v>6.4768553870392198</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="8">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="7">
         <v>20220420</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="8">
         <v>2143</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <v>77</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G19" s="8">
+      <c r="F19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="7">
         <v>4</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="7">
         <v>15</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="7">
         <v>3</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="J19" s="7" t="s">
         <v>51</v>
       </c>
       <c r="K19" t="s">
         <v>56</v>
       </c>
-      <c r="L19" s="8">
-        <v>1</v>
-      </c>
-      <c r="M19" s="8">
+      <c r="L19" s="7">
+        <v>1</v>
+      </c>
+      <c r="M19" s="7">
         <v>1</v>
       </c>
       <c r="O19" s="3">
         <v>44721</v>
       </c>
-      <c r="P19" s="6" t="s">
+      <c r="P19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q19" s="5">
+      <c r="Q19" s="4">
         <v>70.173836158008129</v>
       </c>
-      <c r="R19" s="5">
+      <c r="R19" s="4">
         <v>5.1077219659280866</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="8">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="7">
         <v>20220420</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="8">
         <v>2143</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="7">
         <v>77</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G20" s="8">
+      <c r="F20" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="7">
         <v>4</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="7">
         <v>8</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="7">
         <v>35</v>
       </c>
-      <c r="J20" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="L20" s="8">
-        <v>1</v>
-      </c>
-      <c r="M20" s="8">
+      <c r="J20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L20" s="7">
+        <v>1</v>
+      </c>
+      <c r="M20" s="7">
         <v>1</v>
       </c>
       <c r="O20" s="3">
         <v>44721</v>
       </c>
-      <c r="P20" s="6" t="s">
+      <c r="P20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="Q20" s="5">
+      <c r="Q20" s="4">
         <v>71.446151739758733</v>
       </c>
-      <c r="R20" s="5">
+      <c r="R20" s="4">
         <v>4.9999766181043768</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="8">
+    <row r="21" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="14">
         <v>20220421</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="15">
         <v>1502</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="14">
         <v>446</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G21" s="8">
+      <c r="F21" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" s="14">
         <v>6</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="14">
         <v>12</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="14">
         <v>80</v>
       </c>
-      <c r="J21" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="J21" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="K21" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="L21" s="8">
-        <v>1</v>
-      </c>
-      <c r="M21" s="8">
-        <v>1</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="L21" s="14">
+        <v>1</v>
+      </c>
+      <c r="M21" s="14">
+        <v>1</v>
+      </c>
+      <c r="O21" s="17">
         <v>44721</v>
       </c>
-      <c r="P21" s="6" t="s">
+      <c r="P21" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="Q21" s="5">
+      <c r="Q21" s="19">
         <v>63.045977273882329</v>
       </c>
-      <c r="R21" s="5">
+      <c r="R21" s="19">
         <v>5.2711976660743973</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="8">
+    <row r="22" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="14">
         <v>20220421</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="15">
         <v>1502</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="14">
         <v>446</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G22" s="8">
+      <c r="F22" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" s="14">
         <v>6</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="14">
         <v>21</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="14">
         <v>4</v>
       </c>
-      <c r="J22" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="L22" s="8">
-        <v>1</v>
-      </c>
-      <c r="M22" s="8">
-        <v>1</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="J22" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L22" s="14">
+        <v>1</v>
+      </c>
+      <c r="M22" s="14">
+        <v>1</v>
+      </c>
+      <c r="O22" s="17">
         <v>44720</v>
       </c>
-      <c r="P22" s="6" t="s">
+      <c r="P22" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="Q22" s="5">
+      <c r="Q22" s="19">
         <v>69.411933626449695</v>
       </c>
-      <c r="R22" s="5">
+      <c r="R22" s="19">
         <v>6.3784919290584901</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="8">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="7">
         <v>20220422</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="8">
         <v>148</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="7">
         <v>1586</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G23" s="8">
+      <c r="F23" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" s="7">
         <v>8</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="7">
         <v>11</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="7">
         <v>83</v>
       </c>
-      <c r="J23" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="L23" s="8">
-        <v>1</v>
-      </c>
-      <c r="M23" s="8">
+      <c r="J23" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L23" s="7">
+        <v>1</v>
+      </c>
+      <c r="M23" s="7">
         <v>1</v>
       </c>
       <c r="O23" s="3">
         <v>44721</v>
       </c>
-      <c r="P23" s="6" t="s">
+      <c r="P23" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Q23" s="5">
+      <c r="Q23" s="4">
         <v>58.057921868155333</v>
       </c>
-      <c r="R23" s="5">
+      <c r="R23" s="4">
         <v>7.0508535835762869</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="8">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="7">
         <v>20220422</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="8">
         <v>148</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="7">
         <v>1586</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G24" s="8">
+      <c r="F24" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="7">
         <v>8</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="7">
         <v>19</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="7">
         <v>4</v>
       </c>
-      <c r="J24" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="L24" s="8">
-        <v>1</v>
-      </c>
-      <c r="M24" s="8">
+      <c r="J24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L24" s="7">
+        <v>1</v>
+      </c>
+      <c r="M24" s="7">
         <v>1</v>
       </c>
       <c r="O24" s="3">
         <v>44721</v>
       </c>
-      <c r="P24" s="6" t="s">
+      <c r="P24" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="Q24" s="5">
+      <c r="Q24" s="4">
         <v>59.908562714338132</v>
       </c>
-      <c r="R24" s="5">
+      <c r="R24" s="4">
         <v>5.8210704756574367</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="8">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="7">
         <v>20220422</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="8">
         <v>148</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="7">
         <v>1586</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G25" s="8">
+      <c r="F25" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" s="7">
         <v>8</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="7">
         <v>2</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I25" s="7">
         <v>500</v>
       </c>
-      <c r="J25" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="L25" s="8">
-        <v>1</v>
-      </c>
-      <c r="M25" s="8">
+      <c r="J25" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L25" s="7">
+        <v>1</v>
+      </c>
+      <c r="M25" s="7">
         <v>1</v>
       </c>
       <c r="O25" s="3">
         <v>44721</v>
       </c>
-      <c r="P25" s="6" t="s">
+      <c r="P25" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Q25" s="5">
+      <c r="Q25" s="4">
         <v>44.539568812054632</v>
       </c>
-      <c r="R25" s="5">
+      <c r="R25" s="4">
         <v>23.569330011996765</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="8">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="7">
         <v>20220422</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="8">
         <v>148</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="7">
         <v>1586</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G26" s="8">
+      <c r="F26" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="7">
         <v>8</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="7">
         <v>2</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I26" s="7">
         <v>500</v>
       </c>
-      <c r="J26" s="8" t="s">
+      <c r="J26" s="7" t="s">
         <v>54</v>
       </c>
       <c r="K26" t="s">
         <v>55</v>
       </c>
-      <c r="L26" s="8">
-        <v>1</v>
-      </c>
-      <c r="M26" s="8">
+      <c r="L26" s="7">
+        <v>1</v>
+      </c>
+      <c r="M26" s="7">
         <v>1</v>
       </c>
       <c r="O26" s="3">
         <v>44720</v>
       </c>
-      <c r="P26" s="6" t="s">
+      <c r="P26" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Q26" s="5">
+      <c r="Q26" s="4">
         <v>47.108140461180497</v>
       </c>
-      <c r="R26" s="5">
+      <c r="R26" s="4">
         <v>25.695561792506101</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8" t="s">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8" t="s">
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7" t="s">
         <v>51</v>
       </c>
       <c r="K27" t="s">
         <v>64</v>
       </c>
-      <c r="L27" s="8">
-        <v>1</v>
-      </c>
-      <c r="M27" s="8">
+      <c r="L27" s="7">
+        <v>1</v>
+      </c>
+      <c r="M27" s="7">
         <v>1</v>
       </c>
       <c r="O27" s="3">
         <v>44721</v>
       </c>
-      <c r="P27" s="6" t="s">
+      <c r="P27" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Q27" s="5">
+      <c r="Q27" s="4">
         <v>1.6759797694557403</v>
       </c>
-      <c r="R27" s="5">
+      <c r="R27" s="4">
         <v>-0.33204341714507318</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8" t="s">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8" t="s">
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7" t="s">
         <v>51</v>
       </c>
       <c r="K28" t="s">
         <v>62</v>
       </c>
-      <c r="L28" s="8">
-        <v>1</v>
-      </c>
-      <c r="M28" s="8">
+      <c r="L28" s="7">
+        <v>1</v>
+      </c>
+      <c r="M28" s="7">
         <v>1</v>
       </c>
       <c r="O28" s="3">
         <v>44721</v>
       </c>
-      <c r="P28" s="6" t="s">
+      <c r="P28" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="Q28" s="5">
+      <c r="Q28" s="4">
         <v>7.3821705722912991</v>
       </c>
-      <c r="R28" s="5">
+      <c r="R28" s="4">
         <v>-0.413298270831433</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8" t="s">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8" t="s">
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7" t="s">
         <v>51</v>
       </c>
       <c r="K29" t="s">
         <v>63</v>
       </c>
-      <c r="L29" s="8">
-        <v>1</v>
-      </c>
-      <c r="M29" s="8">
+      <c r="L29" s="7">
+        <v>1</v>
+      </c>
+      <c r="M29" s="7">
         <v>1</v>
       </c>
       <c r="O29" s="3">
         <v>44721</v>
       </c>
-      <c r="P29" s="6" t="s">
+      <c r="P29" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="Q29" s="5">
+      <c r="Q29" s="4">
         <v>3.8196869433894793</v>
       </c>
-      <c r="R29" s="5">
+      <c r="R29" s="4">
         <v>-0.13862194101741498</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O2:R29">
+  <sortState ref="O2:R29">
     <sortCondition ref="P2:P29"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
